--- a/Data/for_thesis/traffic/vehicles.xlsx
+++ b/Data/for_thesis/traffic/vehicles.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John B\Projects_Git\Damp\Data\for_thesis\traffic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AAC5DD-0432-4D2D-B992-DB7C731C0E4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,21 +105,19 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>axle</t>
-  </si>
-  <si>
-    <t>vehicle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>tst-tand</t>
   </si>
@@ -139,15 +143,6 @@
     <t>car3</t>
   </si>
   <si>
-    <t>stiffness (k/in)</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>damping ratio</t>
-  </si>
-  <si>
     <t>Damping Ratio</t>
   </si>
   <si>
@@ -167,12 +162,6 @@
   </si>
   <si>
     <t>HS20-8_3</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>damping (lb-s/in)</t>
   </si>
   <si>
     <t>I76 Truck</t>
@@ -299,11 +288,32 @@
   <si>
     <t>mass (slinch)</t>
   </si>
+  <si>
+    <t>distance from rear axle (ft)</t>
+  </si>
+  <si>
+    <t>Natural Frequency</t>
+  </si>
+  <si>
+    <t>Damping Coefficient (lb-s/in)</t>
+  </si>
+  <si>
+    <t>Spring Stiffness (kip/in)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Axle #</t>
+  </si>
+  <si>
+    <t>Vehicle #</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -434,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,6 +488,21 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,6 +512,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -535,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,9 +596,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,6 +648,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,90 +840,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="21">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="25">
         <f>E2*1000/386.09</f>
         <v>82.882229531974417</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="21">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="25">
         <f>I2*(2*SQRT(G2*E2/386))*1000</f>
         <v>257.52911199186019</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="21">
         <v>0.1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="25">
         <f>SQRT(G2*386/E2)/(2*PI())</f>
         <v>2.4720303170528668</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="15">
         <v>1821.0058144239415</v>
       </c>
       <c r="M2" s="1">
@@ -870,196 +934,188 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="21">
         <v>32</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="25">
         <f t="shared" ref="F3:F24" si="0">E3*1000/386.09</f>
         <v>82.882229531974417</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="21">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="25">
         <f t="shared" ref="H3:H24" si="1">I3*(2*SQRT(G3*E3/386))*1000</f>
         <v>257.52911199186019</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="21">
         <v>0.1</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J24" si="2">SQRT(G3*386/E3)/(2*PI())</f>
+      <c r="J3" s="25">
+        <f>SQRT(G3*386/E3)/(2*PI())</f>
         <v>2.4720303170528668</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="15">
         <v>1821.0058144239415</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="21">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <f t="shared" si="0"/>
         <v>20.720557382993604</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="21">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="25">
         <f t="shared" si="1"/>
         <v>111.51337659949932</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="21">
         <v>0.1</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
+      <c r="J4" s="25">
+        <f t="shared" ref="J3:J24" si="2">SQRT(G4*386/E4)/(2*PI())</f>
         <v>4.2816821069861657</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="15">
         <v>407.18927884743005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="21">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="21">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <f>E5*1000/386.09</f>
         <v>82.882229531974417</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="21">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="25">
         <f t="shared" si="1"/>
         <v>460.68208047916448</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="21">
         <v>0.2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="25">
         <f t="shared" si="2"/>
         <v>2.2110511325482269</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <v>1994.8119238161185</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="22"/>
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="21">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="21">
         <v>32</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="25">
         <f t="shared" si="0"/>
         <v>82.882229531974417</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="21">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="25">
         <f t="shared" si="1"/>
         <v>460.68208047916448</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="21">
         <v>0.2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="25">
         <f t="shared" si="2"/>
         <v>2.2110511325482269</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <v>1994.8119238161185</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="21">
         <v>44</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="21">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>20.720557382993604</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="21">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="25">
         <f t="shared" si="1"/>
         <v>407.18927884743005</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="21">
         <f>$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="25">
         <f t="shared" si="2"/>
         <v>3.1268984987500943</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <v>455.25145360598538</v>
       </c>
       <c r="O7">
@@ -1067,657 +1123,635 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="21">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="21">
         <v>32</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="25">
         <f t="shared" si="0"/>
         <v>82.882229531974417</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="21">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="25">
         <f t="shared" si="1"/>
         <v>415.25321571376401</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="21">
         <v>0.2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="25">
         <f t="shared" si="2"/>
         <v>1.9930145577688396</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <v>2076.2660785688199</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="21">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="21">
         <v>32</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>82.882229531974417</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="21">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="25">
         <f t="shared" si="1"/>
         <v>415.25321571376401</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="21">
         <v>0.2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="25">
         <f t="shared" si="2"/>
         <v>1.9930145577688396</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
         <v>2076.2660785688199</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="22"/>
+      <c r="B10" s="21">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="21">
         <v>36</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="21">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>20.720557382993604</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="21">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="25">
         <f t="shared" si="1"/>
         <v>455.25145360598538</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="21">
         <f>$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="25">
         <f t="shared" si="2"/>
         <v>3.4959788009736266</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <v>427.06371853520778</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
         <v>17</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="21">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="25">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="21">
         <v>0.1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="25">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="15">
         <v>1453.9565458794495</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="21">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="21">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="25">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="21">
         <v>0.1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="25">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="15">
         <v>1453.9565458794495</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
         <f>35-6</f>
         <v>29</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="21">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="21">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="25">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="21">
         <v>0.1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="25">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="15">
         <v>839.44220315351856</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="22"/>
+      <c r="B14" s="21">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="21">
         <v>17</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="21">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="25">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="21">
         <v>0.1</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="25">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <v>839.44220315351856</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="21">
         <v>51</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="21">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="25">
         <f t="shared" si="0"/>
         <v>31.080836074490406</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="25">
         <f t="shared" si="1"/>
         <v>261.52204951670842</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="21">
         <f>$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="25">
         <f t="shared" si="2"/>
         <v>1.3388579488774599</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
         <v>523.04409903341684</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="21">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="21">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="21">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="25">
         <f>E16*1000/386.09</f>
         <v>64.751741821855006</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="21">
         <v>12</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="25">
         <f t="shared" si="1"/>
         <v>176.31812981527</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="21">
         <v>0.1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="25">
         <f t="shared" si="2"/>
         <v>2.1663788279784049</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
         <v>1763.1812981527</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21">
+        <v>10</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="21">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
+      <c r="E17" s="21">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="25">
         <f t="shared" si="0"/>
         <v>64.751741821855006</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="21">
         <v>12</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="25">
         <f t="shared" si="1"/>
         <v>176.31812981527</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="21">
         <v>0.1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="25">
         <f t="shared" si="2"/>
         <v>2.1663788279784049</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="15">
         <v>1763.1812981527</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="21">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="21">
         <v>20</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="25">
         <f t="shared" si="0"/>
         <v>51.801393457484011</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="21">
         <v>12</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="25">
         <f t="shared" si="1"/>
         <v>315.40745914606094</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="21">
         <v>0.2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="25">
         <f t="shared" si="2"/>
         <v>2.4220851621880182</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="15">
         <v>1577.0372957303048</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="22">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="21">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="21">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="21">
         <v>1.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="25">
         <f t="shared" si="0"/>
         <v>3.8851045093113008</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="21">
         <v>0.2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="25">
         <f t="shared" si="1"/>
         <v>27.878344149874831</v>
       </c>
-      <c r="I19">
-        <f>$O$7</f>
+      <c r="I19" s="21">
+        <f t="shared" ref="I19:I24" si="3">$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="25">
         <f t="shared" si="2"/>
         <v>1.1417818951963108</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="15">
         <v>55.756688299749662</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="21">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
+      <c r="E20" s="21">
         <v>1.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="25">
         <f t="shared" si="0"/>
         <v>3.8851045093113008</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="21">
         <v>0.2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="25">
         <f t="shared" si="1"/>
         <v>27.878344149874831</v>
       </c>
-      <c r="I20">
-        <f>$O$7</f>
+      <c r="I20" s="21">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
         <v>1.1417818951963108</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="15">
         <v>55.756688299749662</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="22">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="21">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="25">
         <f t="shared" si="0"/>
         <v>5.1801393457484011</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="21">
         <v>0.4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="25">
         <f t="shared" si="1"/>
         <v>45.525145360598543</v>
       </c>
-      <c r="I21">
-        <f>$O$7</f>
+      <c r="I21" s="21">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="25">
         <f t="shared" si="2"/>
         <v>1.3983915203894506</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="15">
         <v>91.050290721197086</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="22"/>
+      <c r="B22" s="21">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="21">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="21">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="25">
         <f t="shared" si="0"/>
         <v>5.1801393457484011</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="21">
         <v>0.4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="25">
         <f t="shared" si="1"/>
         <v>45.525145360598543</v>
       </c>
-      <c r="I22">
-        <f>$O$7</f>
+      <c r="I22" s="21">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="25">
         <f t="shared" si="2"/>
         <v>1.3983915203894506</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="15">
         <v>91.050290721197086</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="21">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="21">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="21">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="25">
         <f t="shared" si="0"/>
         <v>7.7702090186226016</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="21">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="25">
         <f t="shared" si="1"/>
         <v>124.6757452385074</v>
       </c>
-      <c r="I23">
-        <f>$O$7</f>
+      <c r="I23" s="21">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="25">
         <f t="shared" si="2"/>
         <v>2.5531019331374916</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="15">
         <v>147.51833116968234</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="22"/>
+      <c r="B24" s="21">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="21">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="21">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="25">
         <f t="shared" si="0"/>
         <v>7.7702090186226016</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="21">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="25">
         <f t="shared" si="1"/>
         <v>124.6757452385074</v>
       </c>
-      <c r="I24">
-        <f>$O$7</f>
+      <c r="I24" s="21">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="25">
         <f t="shared" si="2"/>
         <v>2.5531019331374916</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="15">
         <v>147.51833116968234</v>
       </c>
     </row>
@@ -1729,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1748,11 +1782,11 @@
         <v>0.15</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27" si="3">SQRT(G27*386/E27)/(2*PI())</f>
+        <f t="shared" ref="J27" si="4">SQRT(G27*386/E27)/(2*PI())</f>
         <v>3.0000022312491246</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1">
         <f>I27*2*E27/1000/386*SQRT(G27*386/E27)</f>
@@ -1767,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1786,7 +1820,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="4">SQRT(G28*386/E28)/(2*PI())</f>
+        <f t="shared" ref="J28" si="5">SQRT(G28*386/E28)/(2*PI())</f>
         <v>5.0724991819888823</v>
       </c>
       <c r="K28">
@@ -1800,13 +1834,23 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1824,41 +1868,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>20000</v>
@@ -1884,12 +1928,12 @@
         <v>20865</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17">
         <v>2400000</v>
@@ -1913,12 +1957,12 @@
         <v>15500000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>60000</v>
@@ -1942,12 +1986,12 @@
         <v>170600</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>2000</v>
@@ -1971,12 +2015,12 @@
         <v>907</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7">
         <v>7000000</v>
@@ -2000,12 +2044,12 @@
         <v>14010160</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7">
         <v>8000</v>
@@ -2017,12 +2061,12 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" ref="B9:H9" si="0">SQRT((1/B4+1/B7)^(-1)/B3)/(2*PI())</f>
@@ -2053,12 +2097,12 @@
         <v>2.9889080288510868</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10">
         <f>B5/(2*(B3)*(B9)*2*PI())</f>
@@ -2091,7 +2135,7 @@
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B11" s="11">
         <f>B9*SQRT(1-B10^2)</f>
@@ -2124,7 +2168,7 @@
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11">
         <f>B9/SQRT(1-2*B10^2)</f>
@@ -2157,7 +2201,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2190,7 +2234,7 @@
         <v>119.14227975</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2223,7 +2267,7 @@
         <v>88507.324999999997</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2256,7 +2300,7 @@
         <v>974.15158999999994</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2289,7 +2333,7 @@
         <v>5.1791060499999997</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2322,7 +2366,7 @@
         <v>80000.115124000004</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2355,7 +2399,7 @@
         <v>2.9889080288510872</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2388,12 +2432,12 @@
         <v>0.14999403475483014</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11">
         <f>B19/SQRT(1-2*B20^2)</f>
@@ -2431,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2448,41 +2492,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>20865</v>
@@ -2508,12 +2552,12 @@
         <v>20865</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5">
         <v>1853807</v>
@@ -2538,12 +2582,12 @@
         <v>7415253</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>27537</v>
@@ -2567,12 +2611,12 @@
         <v>118016.813830892</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>907</v>
@@ -2596,12 +2640,12 @@
         <v>907</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7">
         <v>14010160</v>
@@ -2625,12 +2669,12 @@
         <v>14010160</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8">
         <f>SQRT(B4/B3)/(2*PI())</f>
@@ -2661,12 +2705,12 @@
         <v>3.0003638467900533</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10">
         <f>B5/(2*B3*SQRT(B4/B3))</f>
@@ -2699,7 +2743,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11">
         <f>B8*SQRT(1-B9^2)</f>
@@ -2732,7 +2776,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2765,7 +2809,7 @@
         <v>119.14227975</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2798,7 +2842,7 @@
         <v>42342.206917949996</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2831,7 +2875,7 @@
         <v>673.89370949646798</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2864,7 +2908,7 @@
         <v>5.1791060499999997</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2897,7 +2941,7 @@
         <v>80000.115124000004</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2930,7 +2974,7 @@
         <v>3.0003638467900524</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -2963,7 +3007,7 @@
         <v>0.15001742571754717</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +3017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2991,41 +3035,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>20000</v>
@@ -3051,12 +3095,12 @@
         <v>20865</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17">
         <v>2400000</v>
@@ -3080,12 +3124,12 @@
         <v>15500000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>60000</v>
@@ -3109,12 +3153,12 @@
         <v>170600</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>2000</v>
@@ -3138,12 +3182,12 @@
         <v>907</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7">
         <v>7000000</v>
@@ -3167,12 +3211,12 @@
         <v>14010160</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7">
         <v>8000</v>
@@ -3184,12 +3228,12 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <f>SQRT((1/B4+1/B7)^(-1)/B3)/(2*PI())</f>
@@ -3220,12 +3264,12 @@
         <v>2.9889080288510868</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10">
         <f>B5/(2*(B3)*(B9)*2*PI())</f>
@@ -3258,7 +3302,7 @@
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B11" s="11">
         <f>B9*SQRT(1-B10^2)</f>
@@ -3291,7 +3335,7 @@
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11">
         <f>B9/SQRT(1-2*B10^2)</f>
@@ -3324,12 +3368,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="11">
         <v>200</v>
@@ -3349,12 +3393,12 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15" s="20">
         <f>B14*(2*PI()*B18)^2/(1-B17^2)</f>
@@ -3378,12 +3422,12 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" s="11">
         <f>2*SQRT(B15*B14)*B17</f>
@@ -3407,7 +3451,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3430,12 +3474,12 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B18" s="11">
         <v>2.5</v>
@@ -3481,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/for_thesis/traffic/vehicles.xlsx
+++ b/Data/for_thesis/traffic/vehicles.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John B\Projects_Git\Damp\Data\for_thesis\traffic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AAC5DD-0432-4D2D-B992-DB7C731C0E4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +99,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -313,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -492,9 +486,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +493,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,26 +590,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,23 +625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -840,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J24"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,47 +812,47 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="21">
@@ -907,21 +867,21 @@
       <c r="E2" s="21">
         <v>32</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <f>E2*1000/386.09</f>
         <v>82.882229531974417</v>
       </c>
       <c r="G2" s="21">
         <v>20</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <f>I2*(2*SQRT(G2*E2/386))*1000</f>
         <v>257.52911199186019</v>
       </c>
       <c r="I2" s="21">
         <v>0.1</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>SQRT(G2*386/E2)/(2*PI())</f>
         <v>2.4720303170528668</v>
       </c>
@@ -934,7 +894,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="21">
         <v>1</v>
       </c>
@@ -947,21 +907,21 @@
       <c r="E3" s="21">
         <v>32</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <f t="shared" ref="F3:F24" si="0">E3*1000/386.09</f>
         <v>82.882229531974417</v>
       </c>
       <c r="G3" s="21">
         <v>20</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <f t="shared" ref="H3:H24" si="1">I3*(2*SQRT(G3*E3/386))*1000</f>
         <v>257.52911199186019</v>
       </c>
       <c r="I3" s="21">
         <v>0.1</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f>SQRT(G3*386/E3)/(2*PI())</f>
         <v>2.4720303170528668</v>
       </c>
@@ -970,7 +930,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -983,22 +943,22 @@
       <c r="E4" s="21">
         <v>8</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <f t="shared" si="0"/>
         <v>20.720557382993604</v>
       </c>
       <c r="G4" s="21">
         <v>15</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <f t="shared" si="1"/>
         <v>111.51337659949932</v>
       </c>
       <c r="I4" s="21">
         <v>0.1</v>
       </c>
-      <c r="J4" s="25">
-        <f t="shared" ref="J3:J24" si="2">SQRT(G4*386/E4)/(2*PI())</f>
+      <c r="J4" s="24">
+        <f t="shared" ref="J4:J24" si="2">SQRT(G4*386/E4)/(2*PI())</f>
         <v>4.2816821069861657</v>
       </c>
       <c r="L4" s="15">
@@ -1006,7 +966,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -1021,21 +981,21 @@
       <c r="E5" s="21">
         <v>32</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f>E5*1000/386.09</f>
         <v>82.882229531974417</v>
       </c>
       <c r="G5" s="21">
         <v>16</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f t="shared" si="1"/>
         <v>460.68208047916448</v>
       </c>
       <c r="I5" s="21">
         <v>0.2</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="2"/>
         <v>2.2110511325482269</v>
       </c>
@@ -1044,7 +1004,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -1057,21 +1017,21 @@
       <c r="E6" s="21">
         <v>32</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>82.882229531974417</v>
       </c>
       <c r="G6" s="21">
         <v>16</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <f t="shared" si="1"/>
         <v>460.68208047916448</v>
       </c>
       <c r="I6" s="21">
         <v>0.2</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f t="shared" si="2"/>
         <v>2.2110511325482269</v>
       </c>
@@ -1083,7 +1043,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -1096,14 +1056,14 @@
       <c r="E7" s="21">
         <v>8</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>20.720557382993604</v>
       </c>
       <c r="G7" s="21">
         <v>8</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <f t="shared" si="1"/>
         <v>407.18927884743005</v>
       </c>
@@ -1111,7 +1071,7 @@
         <f>$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <f t="shared" si="2"/>
         <v>3.1268984987500943</v>
       </c>
@@ -1123,7 +1083,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="21">
@@ -1138,21 +1098,21 @@
       <c r="E8" s="21">
         <v>32</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>82.882229531974417</v>
       </c>
       <c r="G8" s="21">
         <v>13</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f t="shared" si="1"/>
         <v>415.25321571376401</v>
       </c>
       <c r="I8" s="21">
         <v>0.2</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <f t="shared" si="2"/>
         <v>1.9930145577688396</v>
       </c>
@@ -1161,7 +1121,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -1174,21 +1134,21 @@
       <c r="E9" s="21">
         <v>32</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>82.882229531974417</v>
       </c>
       <c r="G9" s="21">
         <v>13</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <f t="shared" si="1"/>
         <v>415.25321571376401</v>
       </c>
       <c r="I9" s="21">
         <v>0.2</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <f t="shared" si="2"/>
         <v>1.9930145577688396</v>
       </c>
@@ -1197,7 +1157,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21">
         <v>6</v>
       </c>
@@ -1210,14 +1170,14 @@
       <c r="E10" s="21">
         <v>8</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>20.720557382993604</v>
       </c>
       <c r="G10" s="21">
         <v>10</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <f t="shared" si="1"/>
         <v>455.25145360598538</v>
       </c>
@@ -1225,7 +1185,7 @@
         <f>$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <f t="shared" si="2"/>
         <v>3.4959788009736266</v>
       </c>
@@ -1234,7 +1194,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
       <c r="B11" s="21">
@@ -1249,21 +1209,21 @@
       <c r="E11" s="21">
         <v>17</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
       <c r="G11" s="21">
         <v>15</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
       <c r="I11" s="21">
         <v>0.1</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
@@ -1272,7 +1232,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -1285,21 +1245,21 @@
       <c r="E12" s="21">
         <v>17</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
       <c r="G12" s="21">
         <v>15</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
       <c r="I12" s="21">
         <v>0.1</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
@@ -1308,7 +1268,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -1322,21 +1282,21 @@
       <c r="E13" s="21">
         <v>17</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
       <c r="G13" s="21">
         <v>15</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
       <c r="I13" s="21">
         <v>0.1</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
@@ -1345,7 +1305,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="21">
         <v>8</v>
       </c>
@@ -1358,21 +1318,21 @@
       <c r="E14" s="21">
         <v>17</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>44.031184438861409</v>
       </c>
       <c r="G14" s="21">
         <v>15</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <f t="shared" si="1"/>
         <v>162.55728364586204</v>
       </c>
       <c r="I14" s="21">
         <v>0.1</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <f t="shared" si="2"/>
         <v>2.9372096935124943</v>
       </c>
@@ -1381,7 +1341,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="21">
         <v>9</v>
       </c>
@@ -1394,14 +1354,14 @@
       <c r="E15" s="21">
         <v>12</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>31.080836074490406</v>
       </c>
       <c r="G15" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <f t="shared" si="1"/>
         <v>261.52204951670842</v>
       </c>
@@ -1409,7 +1369,7 @@
         <f>$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" si="2"/>
         <v>1.3388579488774599</v>
       </c>
@@ -1418,7 +1378,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="25">
         <v>5</v>
       </c>
       <c r="B16" s="21">
@@ -1433,21 +1393,21 @@
       <c r="E16" s="21">
         <v>25</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <f>E16*1000/386.09</f>
         <v>64.751741821855006</v>
       </c>
       <c r="G16" s="21">
         <v>12</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <f t="shared" si="1"/>
         <v>176.31812981527</v>
       </c>
       <c r="I16" s="21">
         <v>0.1</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <f t="shared" si="2"/>
         <v>2.1663788279784049</v>
       </c>
@@ -1456,7 +1416,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="21">
         <v>10</v>
       </c>
@@ -1469,21 +1429,21 @@
       <c r="E17" s="21">
         <v>25</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>64.751741821855006</v>
       </c>
       <c r="G17" s="21">
         <v>12</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <f t="shared" si="1"/>
         <v>176.31812981527</v>
       </c>
       <c r="I17" s="21">
         <v>0.1</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <f t="shared" si="2"/>
         <v>2.1663788279784049</v>
       </c>
@@ -1492,7 +1452,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="21">
         <v>11</v>
       </c>
@@ -1505,21 +1465,21 @@
       <c r="E18" s="21">
         <v>20</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>51.801393457484011</v>
       </c>
       <c r="G18" s="21">
         <v>12</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="24">
         <f t="shared" si="1"/>
         <v>315.40745914606094</v>
       </c>
       <c r="I18" s="21">
         <v>0.2</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <f t="shared" si="2"/>
         <v>2.4220851621880182</v>
       </c>
@@ -1528,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
       <c r="B19" s="21">
@@ -1543,14 +1503,14 @@
       <c r="E19" s="21">
         <v>1.5</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>3.8851045093113008</v>
       </c>
       <c r="G19" s="21">
         <v>0.2</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <f t="shared" si="1"/>
         <v>27.878344149874831</v>
       </c>
@@ -1558,7 +1518,7 @@
         <f t="shared" ref="I19:I24" si="3">$O$7</f>
         <v>0.5</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <f t="shared" si="2"/>
         <v>1.1417818951963108</v>
       </c>
@@ -1567,7 +1527,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="21">
         <v>12</v>
       </c>
@@ -1580,14 +1540,14 @@
       <c r="E20" s="21">
         <v>1.5</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>3.8851045093113008</v>
       </c>
       <c r="G20" s="21">
         <v>0.2</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <f t="shared" si="1"/>
         <v>27.878344149874831</v>
       </c>
@@ -1595,7 +1555,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <f t="shared" si="2"/>
         <v>1.1417818951963108</v>
       </c>
@@ -1604,7 +1564,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="25">
         <v>7</v>
       </c>
       <c r="B21" s="21">
@@ -1619,14 +1579,14 @@
       <c r="E21" s="21">
         <v>2</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <f t="shared" si="0"/>
         <v>5.1801393457484011</v>
       </c>
       <c r="G21" s="21">
         <v>0.4</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>45.525145360598543</v>
       </c>
@@ -1634,7 +1594,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <f t="shared" si="2"/>
         <v>1.3983915203894506</v>
       </c>
@@ -1643,7 +1603,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="21">
         <v>13</v>
       </c>
@@ -1656,14 +1616,14 @@
       <c r="E22" s="21">
         <v>2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>5.1801393457484011</v>
       </c>
       <c r="G22" s="21">
         <v>0.4</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <f t="shared" si="1"/>
         <v>45.525145360598543</v>
       </c>
@@ -1671,7 +1631,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="24">
         <f t="shared" si="2"/>
         <v>1.3983915203894506</v>
       </c>
@@ -1680,7 +1640,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="25">
         <v>8</v>
       </c>
       <c r="B23" s="21">
@@ -1695,14 +1655,14 @@
       <c r="E23" s="21">
         <v>3</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <f t="shared" si="0"/>
         <v>7.7702090186226016</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <f t="shared" si="1"/>
         <v>124.6757452385074</v>
       </c>
@@ -1710,7 +1670,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <f t="shared" si="2"/>
         <v>2.5531019331374916</v>
       </c>
@@ -1719,7 +1679,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="21">
         <v>14</v>
       </c>
@@ -1732,14 +1692,14 @@
       <c r="E24" s="21">
         <v>3</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <f t="shared" si="0"/>
         <v>7.7702090186226016</v>
       </c>
       <c r="G24" s="21">
         <v>2</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <f t="shared" si="1"/>
         <v>124.6757452385074</v>
       </c>
@@ -1747,7 +1707,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <f t="shared" si="2"/>
         <v>2.5531019331374916</v>
       </c>
@@ -1769,28 +1729,32 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" ref="F27" si="4">E27*1000/386.09</f>
+        <v>98.42264756921962</v>
       </c>
       <c r="G27" s="1">
-        <v>42.342199999999998</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1">
-        <f>I27*(2*E27*1000/386*SQRT(G27*386/E27/1000))</f>
-        <v>21.310479798042977</v>
+        <f>I27*(2*SQRT(G27*E27/386))*1000</f>
+        <v>343.7073101141533</v>
       </c>
       <c r="I27">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27" si="4">SQRT(G27*386/E27)/(2*PI())</f>
-        <v>3.0000022312491246</v>
+        <f t="shared" ref="J27" si="5">SQRT(G27*386/E27)/(2*PI())</f>
+        <v>2.7783222249018142</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="1">
         <f>I27*2*E27/1000/386*SQRT(G27*386/E27)</f>
-        <v>6.7389654192820869E-4</v>
+        <v>3.4370731011415339E-4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1807,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9.5</v>
+        <v>119</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
       <c r="H28">
         <f>I28*(2*SQRT(G28*E28/386))*1000</f>
-        <v>109.81614404188477</v>
+        <v>388.6671791723648</v>
       </c>
       <c r="I28">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="5">SQRT(G28*386/E28)/(2*PI())</f>
-        <v>5.0724991819888823</v>
+        <f t="shared" ref="J28" si="6">SQRT(G28*386/E28)/(2*PI())</f>
+        <v>1.4332115770819911</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -1830,7 +1794,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K29">
         <f>K28-J27</f>
-        <v>2.9999977687508754</v>
+        <v>3.2216777750981858</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2475,7 +2439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3017,7 +2981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3525,7 +3489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
